--- a/prototipado/matriz_dist_waze.xlsx
+++ b/prototipado/matriz_dist_waze.xlsx
@@ -503,7 +503,7 @@
         <v>1.22</v>
       </c>
       <c r="H2" t="n">
-        <v>1.438</v>
+        <v>1.38</v>
       </c>
       <c r="I2" t="n">
         <v>0.46</v>
@@ -515,7 +515,7 @@
         <v>0.718</v>
       </c>
       <c r="L2" t="n">
-        <v>1.416</v>
+        <v>1.358</v>
       </c>
       <c r="M2" t="n">
         <v>0.098</v>
@@ -541,10 +541,10 @@
         <v>0.126</v>
       </c>
       <c r="E3" t="n">
-        <v>1.956</v>
+        <v>1.505</v>
       </c>
       <c r="F3" t="n">
-        <v>1.99</v>
+        <v>1.282</v>
       </c>
       <c r="G3" t="n">
         <v>1.066</v>
@@ -559,7 +559,7 @@
         <v>0.049</v>
       </c>
       <c r="K3" t="n">
-        <v>1.986</v>
+        <v>1.278</v>
       </c>
       <c r="L3" t="n">
         <v>1.204</v>
@@ -571,7 +571,7 @@
         <v>1.008</v>
       </c>
       <c r="O3" t="n">
-        <v>1.986</v>
+        <v>1.278</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         <v>1.013</v>
       </c>
       <c r="H4" t="n">
-        <v>1.242</v>
+        <v>1.173</v>
       </c>
       <c r="I4" t="n">
         <v>0.264</v>
@@ -609,10 +609,10 @@
         <v>0.013</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.151</v>
       </c>
       <c r="M4" t="n">
-        <v>1.22</v>
+        <v>0.306</v>
       </c>
       <c r="N4" t="n">
         <v>0.955</v>
@@ -644,7 +644,7 @@
         <v>1.22</v>
       </c>
       <c r="H5" t="n">
-        <v>1.437</v>
+        <v>1.38</v>
       </c>
       <c r="I5" t="n">
         <v>0.459</v>
@@ -656,7 +656,7 @@
         <v>0.717</v>
       </c>
       <c r="L5" t="n">
-        <v>1.415</v>
+        <v>1.358</v>
       </c>
       <c r="M5" t="n">
         <v>0.008</v>
@@ -776,7 +776,7 @@
         <v>0.48</v>
       </c>
       <c r="E8" t="n">
-        <v>2.31</v>
+        <v>1.859</v>
       </c>
       <c r="F8" t="n">
         <v>0.215</v>
@@ -1014,7 +1014,7 @@
         <v>0.046</v>
       </c>
       <c r="F13" t="n">
-        <v>0.046</v>
+        <v>0.077</v>
       </c>
       <c r="G13" t="n">
         <v>0.894</v>
@@ -1049,19 +1049,19 @@
         <v>0.418</v>
       </c>
       <c r="B14" t="n">
-        <v>1.896</v>
+        <v>1.445</v>
       </c>
       <c r="C14" t="n">
-        <v>1.835</v>
+        <v>1.384</v>
       </c>
       <c r="D14" t="n">
         <v>0.046</v>
       </c>
       <c r="E14" t="n">
-        <v>1.755</v>
+        <v>1.304</v>
       </c>
       <c r="F14" t="n">
-        <v>1.789</v>
+        <v>1.338</v>
       </c>
       <c r="G14" t="n">
         <v>1.307</v>
@@ -1073,10 +1073,10 @@
         <v>1.076</v>
       </c>
       <c r="J14" t="n">
-        <v>1.81</v>
+        <v>1.359</v>
       </c>
       <c r="K14" t="n">
-        <v>1.785</v>
+        <v>1.334</v>
       </c>
       <c r="L14" t="n">
         <v>1.445</v>
@@ -1088,7 +1088,7 @@
         <v>1.249</v>
       </c>
       <c r="O14" t="n">
-        <v>1.785</v>
+        <v>1.334</v>
       </c>
     </row>
     <row r="15">
@@ -1105,7 +1105,7 @@
         <v>0.538</v>
       </c>
       <c r="E15" t="n">
-        <v>2.368</v>
+        <v>2.5</v>
       </c>
       <c r="F15" t="n">
         <v>0.273</v>

--- a/prototipado/matriz_dist_waze.xlsx
+++ b/prototipado/matriz_dist_waze.xlsx
@@ -503,7 +503,7 @@
         <v>1.22</v>
       </c>
       <c r="H2" t="n">
-        <v>1.38</v>
+        <v>1.438</v>
       </c>
       <c r="I2" t="n">
         <v>0.46</v>
@@ -515,7 +515,7 @@
         <v>0.718</v>
       </c>
       <c r="L2" t="n">
-        <v>1.358</v>
+        <v>1.416</v>
       </c>
       <c r="M2" t="n">
         <v>0.098</v>
@@ -524,7 +524,7 @@
         <v>1.162</v>
       </c>
       <c r="O2" t="n">
-        <v>0.718</v>
+        <v>1.162</v>
       </c>
     </row>
     <row r="3">
@@ -626,37 +626,37 @@
         <v>0.014</v>
       </c>
       <c r="B5" t="n">
-        <v>0.828</v>
+        <v>0.878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.767</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.737</v>
       </c>
       <c r="F5" t="n">
-        <v>0.721</v>
+        <v>0.771</v>
       </c>
       <c r="G5" t="n">
         <v>1.22</v>
       </c>
       <c r="H5" t="n">
-        <v>1.38</v>
+        <v>1.437</v>
       </c>
       <c r="I5" t="n">
-        <v>0.459</v>
+        <v>0.509</v>
       </c>
       <c r="J5" t="n">
-        <v>0.742</v>
+        <v>0.509</v>
       </c>
       <c r="K5" t="n">
-        <v>0.717</v>
+        <v>0.767</v>
       </c>
       <c r="L5" t="n">
-        <v>1.358</v>
+        <v>1.415</v>
       </c>
       <c r="M5" t="n">
         <v>0.008</v>
@@ -665,7 +665,7 @@
         <v>1.162</v>
       </c>
       <c r="O5" t="n">
-        <v>0.717</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>0.235</v>
       </c>
       <c r="G10" t="n">
-        <v>0.439</v>
+        <v>0.442</v>
       </c>
       <c r="H10" t="n">
         <v>0.469</v>
@@ -897,7 +897,7 @@
         <v>0.588</v>
       </c>
       <c r="N10" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="O10" t="n">
         <v>0.231</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.227</v>
@@ -1105,7 +1105,7 @@
         <v>0.538</v>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
+        <v>1.917</v>
       </c>
       <c r="F15" t="n">
         <v>0.273</v>
@@ -1167,7 +1167,7 @@
         <v>1.419</v>
       </c>
       <c r="J16" t="n">
-        <v>0.024</v>
+        <v>1.419</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
